--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_skipBackup\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE08CF3-C616-4D93-87A7-F9395B462FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -459,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -493,9 +489,6 @@
   </si>
   <si>
     <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
   </si>
   <si>
     <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
@@ -510,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,23 +772,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -831,23 +807,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1023,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1062,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1112,7 +1071,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1162,7 +1121,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1208,11 +1167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,69 +1181,62 @@
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="17.140625" style="17"/>
+    <col min="6" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1309,11 +1261,8 @@
       <c r="H3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1330,135 +1279,120 @@
         <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1475,19 +1409,16 @@
         <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="14">
-        <v>8</v>
-      </c>
-      <c r="I9" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1512,17 +1443,14 @@
       <c r="H10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1533,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1898,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\TestDataNew\ExecutionTestData\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -491,10 +488,13 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,12 +561,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -678,7 +672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1129,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1179,7 +1173,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,11 +1185,11 @@
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>151</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,7 +1200,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1239,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1253,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1258,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1269,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,7 +1403,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1474,7 +1468,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1590,7 +1584,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1616,7 +1610,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches3\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,16 +476,31 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>ONEPLUS_7_Android_10.0.0_1c4f5</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel6_Android_12.0.0_1c082</t>
+    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi6_Android_9.0.0_ed157</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
+  </si>
+  <si>
+    <t>OPPO_A3s_Android_8.1.0_37894</t>
   </si>
 </sst>
 </file>
@@ -607,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,7 +673,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1156,70 +1170,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1241,31 +1283,55 @@
       <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1287,8 +1353,20 @@
       <c r="G5" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1310,8 +1388,20 @@
       <c r="G6" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1333,8 +1423,20 @@
       <c r="G7" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1356,8 +1458,20 @@
       <c r="G8" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1379,8 +1493,20 @@
       <c r="G9" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1400,6 +1526,18 @@
         <v>32</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1504,7 +1642,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1569,7 +1707,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1685,7 +1823,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1711,7 +1849,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches3\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,9 +476,6 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
-  </si>
-  <si>
     <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
   </si>
   <si>
     <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>OPPO_A3s_Android_8.1.0_37894</t>
   </si>
 </sst>
 </file>
@@ -1170,28 +1164,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1216,52 +1207,34 @@
       <c r="H1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1286,52 +1259,34 @@
       <c r="H3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1356,17 +1311,8 @@
       <c r="H5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1391,17 +1337,8 @@
       <c r="H6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1426,17 +1363,8 @@
       <c r="H7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1461,17 +1389,8 @@
       <c r="H8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1496,17 +1415,8 @@
       <c r="H9" s="18">
         <v>7</v>
       </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1529,15 +1439,6 @@
         <v>32</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
